--- a/docs/輸入法配置清單.xlsx
+++ b/docs/輸入法配置清單.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131FFD0-2767-4CEC-B248-E4FEB5AB0540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA65EE6-3AC2-4451-8768-4723945B8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-105" windowWidth="16440" windowHeight="28320" xr2:uid="{9802FFAC-390A-44F2-8F8B-58A7403FAC33}"/>
+    <workbookView xWindow="31590" yWindow="1500" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{9802FFAC-390A-44F2-8F8B-58A7403FAC33}"/>
   </bookViews>
   <sheets>
     <sheet name="輸入法建構項目配置表" sheetId="1" r:id="rId1"/>
+    <sheet name="輸入法建構項目配置表 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>tlpa_phing_im.schema.yaml</t>
   </si>
@@ -121,6 +122,71 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlpa_phing_im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_phing_im</t>
+  </si>
+  <si>
+    <t>tlpa_hong_im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu_im_2_hong_im</t>
+  </si>
+  <si>
+    <t>zu_im_2_phing_im</t>
+  </si>
+  <si>
+    <t>bp_hong_im</t>
+  </si>
+  <si>
+    <t>輸入方案名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音輸入法 【方音符號】</t>
+  </si>
+  <si>
+    <t>注音輸入法 【閩拼方案】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音輸入法 【閩拼方案】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音輸入法 【台語注音二式】</t>
+  </si>
+  <si>
+    <t>拼音輸入法 【台語注音二式】</t>
+  </si>
+  <si>
+    <t>拼音輸入法 【台語拼音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鍵練習 【方音符號】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kb_hong_im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kb_hong_im.schema.yaml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +246,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC SemiBold"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -306,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +420,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26CC07D-EB19-4537-9F1C-9C29C6B6C0EA}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
@@ -878,4 +962,134 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1464C311-78E7-4BF2-ABF8-1949D9E4AC35}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/輸入法配置清單.xlsx
+++ b/docs/輸入法配置清單.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA65EE6-3AC2-4451-8768-4723945B8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C238464-5754-4C02-8ADB-DF7A72A74C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="1500" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{9802FFAC-390A-44F2-8F8B-58A7403FAC33}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{9802FFAC-390A-44F2-8F8B-58A7403FAC33}"/>
   </bookViews>
   <sheets>
-    <sheet name="輸入法建構項目配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="輸入法建構項目配置表 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="輸入方案套件包" sheetId="1" r:id="rId1"/>
+    <sheet name="輸入法建構項目配置表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>tlpa_phing_im.schema.yaml</t>
   </si>
@@ -187,6 +187,25 @@
   </si>
   <si>
     <t>kb_hong_im.schema.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入方案套件包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rime-tlpa-zu2-v0.1.zip
+台語注音二式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rime-tlpa-bp-v0.1.zip
+閩拼方案（BP）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rime-tlpa-tlpa-v0.1.zip
+台語拼音（TLPA）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +451,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,23 +804,23 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -796,9 +830,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>19</v>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -808,8 +842,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
       <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
@@ -818,65 +852,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
       <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>20</v>
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -886,8 +920,8 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
       <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
@@ -896,33 +930,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
       <c r="C16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>21</v>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>14</v>
@@ -932,8 +966,8 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
       <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
@@ -942,16 +976,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
       <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
       <c r="C20" s="12" t="s">
         <v>17</v>
       </c>
@@ -959,6 +993,11 @@
       <c r="E20" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
